--- a/onlineexam/excels/题目导入模板.xlsx
+++ b/onlineexam/excels/题目导入模板.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,79 +36,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例题: 下面哪个选项不属于devops范畴?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>基础设施即代码</t>
+  </si>
+  <si>
+    <t>…以此类推,最多到Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算</t>
+  </si>
+  <si>
+    <t>DevOps涉及到哪些工种?</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选项A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例题: 下面哪个选项不属于devops范畴?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaaS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘</t>
-  </si>
-  <si>
-    <t>基础设施即代码</t>
-  </si>
-  <si>
-    <t>…以此类推,最多到Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云计算</t>
-  </si>
-  <si>
-    <t>DevOps涉及到哪些工种?</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>运维</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,8 +151,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,22 +454,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,65 +480,65 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
